--- a/Unity/Assets/Config/Excel/TroopConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TroopConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -35,7 +35,13 @@
     <t>队伍类型</t>
   </si>
   <si>
+    <t>队伍认数</t>
+  </si>
+  <si>
     <t>TroopType</t>
+  </si>
+  <si>
+    <t>TroopCount</t>
   </si>
   <si>
     <t>int</t>
@@ -1051,7 +1057,7 @@
   <dimension ref="C3:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
@@ -1076,7 +1082,9 @@
       <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1088,9 +1096,11 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1099,12 +1109,14 @@
     </row>
     <row r="5" ht="13.5" spans="3:10">
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1116,9 +1128,11 @@
         <v>1000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="6"/>
     </row>
